--- a/me-docs/29.Quan-ly-nguoi-dung.xlsx
+++ b/me-docs/29.Quan-ly-nguoi-dung.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A750A71-A87F-4A4A-AF59-955B63821958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F628CC6-618F-46CA-A469-1912A9DDFD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="form add" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\user\form.blade.php</t>
+  </si>
+  <si>
+    <t>resources\lang\en\validation.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Form.php</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -989,6 +1002,539 @@
         <a:xfrm>
           <a:off x="609600" y="45720000"/>
           <a:ext cx="2428571" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26ADAF00-8517-C3D0-BA41-B0C2197F11AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7400000" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398781</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9F46F4-7E20-C39B-3B84-ECE1DB93A75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1905000"/>
+          <a:ext cx="10152381" cy="5323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FECB2A9-7841-CD8D-0691-E9EBB243ECA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429501"/>
+          <a:ext cx="11439525" cy="2864516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532267</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFFDAD5-9F15-DB99-DD81-738CE23B977F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="9066667" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84571</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>66143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29385D69-EB93-7DE1-3E15-F782A5D3137E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="9228571" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27657</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC99694A-3EAB-56B9-9726-EBB6AED99579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17907000"/>
+          <a:ext cx="7342857" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE894253-ADC3-4AA6-44BE-1B182E25E6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1905000"/>
+          <a:ext cx="9685714" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>122667</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19272667-CE07-4027-55C4-2A796713A985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24003000"/>
+          <a:ext cx="9266667" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255848</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>190262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D30877-A809-6832-8CB9-41D0FD79C7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26098500"/>
+          <a:ext cx="10619048" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208381</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>142548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C61A1C8-B2BC-8A77-47CE-900F31D6AC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28194000"/>
+          <a:ext cx="9352381" cy="2619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541638</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>113476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7541CABE-18CD-5369-F61B-96AC061C5697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31242000"/>
+          <a:ext cx="10295238" cy="6590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>4012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95A26F8-17F6-ABA6-284F-EBA8C67A811D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="38290500"/>
+          <a:ext cx="11353800" cy="5528512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView topLeftCell="A259" workbookViewId="0">
       <selection activeCell="L251" sqref="L251"/>
     </sheetView>
   </sheetViews>
@@ -1335,4 +1881,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0497F2-6766-42C4-81CB-791CE04C61EA}">
+  <dimension ref="A2:B201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/29.Quan-ly-nguoi-dung.xlsx
+++ b/me-docs/29.Quan-ly-nguoi-dung.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F628CC6-618F-46CA-A469-1912A9DDFD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EF870-0C25-48C3-8383-BD363E90BB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="form add" sheetId="2" r:id="rId2"/>
+    <sheet name="form info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -74,6 +75,18 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\user\form_add.blade.php</t>
+  </si>
+  <si>
+    <t>Copy from form_add.blade.php then edit code</t>
+  </si>
+  <si>
+    <t>Copy from form.blade.php then edit code</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\user\form_info.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1535,6 +1548,451 @@
         <a:xfrm>
           <a:off x="609601" y="38290500"/>
           <a:ext cx="11353800" cy="5528512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198552</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3154CDF9-06BC-0CF0-3DB8-6D0D49A0F9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="11780952" cy="6028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F7989F-7411-5402-C9DF-57B24D17D9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6858000"/>
+          <a:ext cx="11258550" cy="5560903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276916</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B98F81-BA8A-D805-8F1B-CED36F303D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954001"/>
+          <a:ext cx="11249716" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132114</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>180738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E899BA-3C5E-D5D6-A5AF-66EEB851EAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24574500"/>
+          <a:ext cx="9885714" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>121571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9AF57D-5B8B-EB35-95BA-0A3E9690AC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="18859500"/>
+          <a:ext cx="11144250" cy="5265071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360686</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>132643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6D3DCF-D6D7-23FE-17B3-AE99ACD4D893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26860500"/>
+          <a:ext cx="10114286" cy="5657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361067</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>94762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B6A341-3B98-4A37-7682-44EBA9E15670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32766000"/>
+          <a:ext cx="7066667" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218133</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>132524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D1DF88-615E-67F3-9FDF-68EF99141360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37147500"/>
+          <a:ext cx="7533333" cy="6609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>117060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C802EBCD-8A26-9A3B-C207-207E47CFE4D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="44196000"/>
+          <a:ext cx="11410950" cy="5641560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418057</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>37738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08864785-B0C7-549B-2AB9-3F664FD8DE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24574500"/>
+          <a:ext cx="8342857" cy="2895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0497F2-6766-42C4-81CB-791CE04C61EA}">
   <dimension ref="A2:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
@@ -1937,4 +2395,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0711EC3-7DF8-4727-86E3-0EFFC83C1A05}">
+  <dimension ref="A2:B249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="T150" sqref="T150:T151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/29.Quan-ly-nguoi-dung.xlsx
+++ b/me-docs/29.Quan-ly-nguoi-dung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EF870-0C25-48C3-8383-BD363E90BB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734DEE4-E2FA-4A1B-895D-5AD4AD23ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="form add" sheetId="2" r:id="rId2"/>
     <sheet name="form info" sheetId="3" r:id="rId3"/>
+    <sheet name="form change password" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -88,6 +89,9 @@
   <si>
     <t>resources\views\admin\pages\user\form_info.blade.php</t>
   </si>
+  <si>
+    <t>resources\views\admin\pages\user\form_change_password.blade.php</t>
+  </si>
 </sst>
 </file>
 
@@ -1993,6 +1997,451 @@
         <a:xfrm>
           <a:off x="609600" y="24574500"/>
           <a:ext cx="8342857" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC6ABDE-95EE-2923-73C2-25D47F12E24C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10287000"/>
+          <a:ext cx="9000000" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>122667</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2E24EF-BD00-E8D2-3947-74ACF5C2B742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9266667" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132114</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0173FA9D-C8D8-B049-563D-BE7AFBA115D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="9885714" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312990</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF31890-F414-9379-2C28-47B29D82871C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="10676190" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532419</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3796D2A3-B17B-586F-207F-398281642891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="7847619" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>589105</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEFC509-ED6D-2CAD-E951-976DFB67F1ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="11561905" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351314</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04652936-F19F-124F-BD4F-1F26FD25CC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21145500"/>
+          <a:ext cx="8885714" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446628</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61929CB-3E97-7435-D637-FBFD1EB4059E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23622000"/>
+          <a:ext cx="8371428" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>167878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D6B6C9-36F4-506C-A33F-F442E3156A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25908000"/>
+          <a:ext cx="11201400" cy="4358878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>116397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796E9C99-0FBB-3273-FF56-6566F88202E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="30670501"/>
+          <a:ext cx="11391900" cy="5640896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2401,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0711EC3-7DF8-4727-86E3-0EFFC83C1A05}">
   <dimension ref="A2:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+    <sheetView topLeftCell="A255" workbookViewId="0">
       <selection activeCell="T150" sqref="T150:T151"/>
     </sheetView>
   </sheetViews>
@@ -2456,4 +2905,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0698A80-D572-4357-8FD0-EADBFC45F599}">
+  <dimension ref="A2:B161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/29.Quan-ly-nguoi-dung.xlsx
+++ b/me-docs/29.Quan-ly-nguoi-dung.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734DEE4-E2FA-4A1B-895D-5AD4AD23ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9747C-9363-484C-90B3-DB76E67913A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="form add" sheetId="2" r:id="rId2"/>
     <sheet name="form info" sheetId="3" r:id="rId3"/>
     <sheet name="form change password" sheetId="4" r:id="rId4"/>
+    <sheet name="form change level" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -92,6 +93,15 @@
   <si>
     <t>resources\views\admin\pages\user\form_change_password.blade.php</t>
   </si>
+  <si>
+    <t>resources\views\admin\pages\user\form_change_level.blade.php</t>
+  </si>
+  <si>
+    <t>Copy from form_change_password.blade.php then edit code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
 </sst>
 </file>
 
@@ -2442,6 +2452,583 @@
         <a:xfrm>
           <a:off x="609601" y="30670501"/>
           <a:ext cx="11391900" cy="5640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>103619</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>132595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976036F2-C784-5BCE-CC2E-9D700630CF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9247619" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>589486</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF74553-610B-BC15-FE87-EA5BE63A805F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="8514286" cy="2609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237105</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069AC384-C170-DB64-AAB1-623BFC6ECFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9715500"/>
+          <a:ext cx="8161905" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293943</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>56786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D98F219-361E-9569-9528-00D128E1299B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="10657143" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561067</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0751F556-800F-9670-9F7A-C55644574D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16954500"/>
+          <a:ext cx="7266667" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360990</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8235F6B-4DE5-F979-D157-E72517E91662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7676190" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E34587-D440-0835-F768-363284B33AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="8695238" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>173517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8081F911-C147-404C-9D77-4733D7396CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24003000"/>
+          <a:ext cx="10772775" cy="4174017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>55695</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>113881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74B9FDF-9513-1558-4DAF-F52F631EA6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28575000"/>
+          <a:ext cx="11638095" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>351543</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54DD81E-FFE2-E97A-B659-11FD5795813B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32385000"/>
+          <a:ext cx="7057143" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8457</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>171190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EF53D3-5924-A0E2-611D-62F6AE691C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34290000"/>
+          <a:ext cx="8542857" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>114073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A073A0D4-0770-AFCB-FBF9-D5C1C853EE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="36766500"/>
+          <a:ext cx="11363324" cy="5829073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>100869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E985761A-D4A3-E4C4-AB73-439473B2E10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="43053000"/>
+          <a:ext cx="11430000" cy="5625369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,7 +3498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0698A80-D572-4357-8FD0-EADBFC45F599}">
   <dimension ref="A2:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
@@ -2971,4 +3558,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B349A7-032C-4543-96F3-A291B9BD603D}">
+  <dimension ref="A2:B226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="I263" sqref="I263"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>